--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1680.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1680.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.6769043230256</v>
+        <v>0.9996787309646606</v>
       </c>
       <c r="B1">
-        <v>2.8210443135739</v>
+        <v>4.185778141021729</v>
       </c>
       <c r="C1">
-        <v>2.086928347349926</v>
+        <v>2.407150506973267</v>
       </c>
       <c r="D1">
-        <v>1.944986405887277</v>
+        <v>1.750830888748169</v>
       </c>
       <c r="E1">
-        <v>1.796321325172133</v>
+        <v>1.375241041183472</v>
       </c>
     </row>
   </sheetData>
